--- a/Second semester/neural network/HW1/lbl8.xlsx
+++ b/Second semester/neural network/HW1/lbl8.xlsx
@@ -494,7 +494,7 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -504,7 +504,7 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -589,7 +589,7 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -659,7 +659,7 @@
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -694,7 +694,7 @@
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -959,7 +959,7 @@
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:1">
@@ -974,7 +974,7 @@
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:1">
@@ -1064,7 +1064,7 @@
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:1">
@@ -1144,7 +1144,7 @@
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:1">
@@ -1159,7 +1159,7 @@
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:1">
@@ -1214,7 +1214,7 @@
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:1">
@@ -1349,7 +1349,7 @@
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:1">
@@ -1429,7 +1429,7 @@
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:1">
@@ -1644,7 +1644,7 @@
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:1">
@@ -1664,7 +1664,7 @@
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:1">
@@ -1889,7 +1889,7 @@
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:1">
@@ -2034,7 +2034,7 @@
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:1">
@@ -2094,7 +2094,7 @@
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:1">
@@ -2124,7 +2124,7 @@
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:1">
@@ -2174,7 +2174,7 @@
     </row>
     <row r="361" spans="1:1">
       <c r="A361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:1">
@@ -2329,7 +2329,7 @@
     </row>
     <row r="392" spans="1:1">
       <c r="A392">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:1">
@@ -2384,7 +2384,7 @@
     </row>
     <row r="403" spans="1:1">
       <c r="A403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:1">
@@ -2524,7 +2524,7 @@
     </row>
     <row r="431" spans="1:1">
       <c r="A431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:1">
@@ -2539,7 +2539,7 @@
     </row>
     <row r="434" spans="1:1">
       <c r="A434">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:1">
@@ -2844,7 +2844,7 @@
     </row>
     <row r="495" spans="1:1">
       <c r="A495">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:1">
@@ -3159,7 +3159,7 @@
     </row>
     <row r="558" spans="1:1">
       <c r="A558">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:1">
@@ -3274,7 +3274,7 @@
     </row>
     <row r="581" spans="1:1">
       <c r="A581">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:1">
@@ -3359,7 +3359,7 @@
     </row>
     <row r="598" spans="1:1">
       <c r="A598">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:1">
@@ -3404,7 +3404,7 @@
     </row>
     <row r="607" spans="1:1">
       <c r="A607">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:1">
@@ -3434,12 +3434,12 @@
     </row>
     <row r="613" spans="1:1">
       <c r="A613">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:1">
@@ -3479,7 +3479,7 @@
     </row>
     <row r="622" spans="1:1">
       <c r="A622">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:1">
@@ -3554,7 +3554,7 @@
     </row>
     <row r="637" spans="1:1">
       <c r="A637">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:1">
@@ -3614,12 +3614,12 @@
     </row>
     <row r="649" spans="1:1">
       <c r="A649">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:1">
@@ -3649,7 +3649,7 @@
     </row>
     <row r="656" spans="1:1">
       <c r="A656">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:1">
@@ -3679,7 +3679,7 @@
     </row>
     <row r="662" spans="1:1">
       <c r="A662">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:1">
@@ -3689,7 +3689,7 @@
     </row>
     <row r="664" spans="1:1">
       <c r="A664">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:1">
@@ -3774,7 +3774,7 @@
     </row>
     <row r="681" spans="1:1">
       <c r="A681">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:1">
@@ -4034,7 +4034,7 @@
     </row>
     <row r="733" spans="1:1">
       <c r="A733">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:1">
@@ -4044,7 +4044,7 @@
     </row>
     <row r="735" spans="1:1">
       <c r="A735">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:1">
@@ -4399,7 +4399,7 @@
     </row>
     <row r="806" spans="1:1">
       <c r="A806">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807" spans="1:1">
@@ -4664,7 +4664,7 @@
     </row>
     <row r="859" spans="1:1">
       <c r="A859">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:1">
@@ -4934,7 +4934,7 @@
     </row>
     <row r="913" spans="1:1">
       <c r="A913">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="914" spans="1:1">
@@ -4949,12 +4949,12 @@
     </row>
     <row r="916" spans="1:1">
       <c r="A916">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:1">
       <c r="A917">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="918" spans="1:1">
@@ -4989,7 +4989,7 @@
     </row>
     <row r="924" spans="1:1">
       <c r="A924">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="925" spans="1:1">
@@ -5034,7 +5034,7 @@
     </row>
     <row r="933" spans="1:1">
       <c r="A933">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:1">
@@ -5049,7 +5049,7 @@
     </row>
     <row r="936" spans="1:1">
       <c r="A936">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="937" spans="1:1">
@@ -5059,7 +5059,7 @@
     </row>
     <row r="938" spans="1:1">
       <c r="A938">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="939" spans="1:1">
@@ -5174,7 +5174,7 @@
     </row>
     <row r="961" spans="1:1">
       <c r="A961">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962" spans="1:1">
@@ -5249,7 +5249,7 @@
     </row>
     <row r="976" spans="1:1">
       <c r="A976">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977" spans="1:1">
@@ -5259,7 +5259,7 @@
     </row>
     <row r="978" spans="1:1">
       <c r="A978">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="979" spans="1:1">
@@ -5299,17 +5299,17 @@
     </row>
     <row r="986" spans="1:1">
       <c r="A986">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="987" spans="1:1">
       <c r="A987">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988" spans="1:1">
       <c r="A988">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:1">
@@ -5349,7 +5349,7 @@
     </row>
     <row r="996" spans="1:1">
       <c r="A996">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:1">
@@ -5359,7 +5359,7 @@
     </row>
     <row r="998" spans="1:1">
       <c r="A998">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999" spans="1:1">
@@ -5369,7 +5369,7 @@
     </row>
     <row r="1000" spans="1:1">
       <c r="A1000">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1001" spans="1:1">
@@ -5474,7 +5474,7 @@
     </row>
     <row r="1021" spans="1:1">
       <c r="A1021">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1022" spans="1:1">
@@ -5524,7 +5524,7 @@
     </row>
     <row r="1031" spans="1:1">
       <c r="A1031">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1032" spans="1:1">
@@ -5584,7 +5584,7 @@
     </row>
     <row r="1043" spans="1:1">
       <c r="A1043">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1044" spans="1:1">
@@ -5594,7 +5594,7 @@
     </row>
     <row r="1045" spans="1:1">
       <c r="A1045">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1046" spans="1:1">
@@ -5649,7 +5649,7 @@
     </row>
     <row r="1056" spans="1:1">
       <c r="A1056">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1057" spans="1:1">
@@ -5669,7 +5669,7 @@
     </row>
     <row r="1060" spans="1:1">
       <c r="A1060">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1061" spans="1:1">
@@ -5729,7 +5729,7 @@
     </row>
     <row r="1072" spans="1:1">
       <c r="A1072">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1073" spans="1:1">
@@ -5864,7 +5864,7 @@
     </row>
     <row r="1099" spans="1:1">
       <c r="A1099">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1100" spans="1:1">
@@ -6169,7 +6169,7 @@
     </row>
     <row r="1160" spans="1:1">
       <c r="A1160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1161" spans="1:1">
@@ -6359,7 +6359,7 @@
     </row>
     <row r="1198" spans="1:1">
       <c r="A1198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1199" spans="1:1">
@@ -6454,7 +6454,7 @@
     </row>
     <row r="1217" spans="1:1">
       <c r="A1217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1218" spans="1:1">
@@ -6519,7 +6519,7 @@
     </row>
     <row r="1230" spans="1:1">
       <c r="A1230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1231" spans="1:1">
@@ -6534,7 +6534,7 @@
     </row>
     <row r="1233" spans="1:1">
       <c r="A1233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1234" spans="1:1">
@@ -6639,7 +6639,7 @@
     </row>
     <row r="1254" spans="1:1">
       <c r="A1254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1255" spans="1:1">
@@ -7544,7 +7544,7 @@
     </row>
     <row r="1435" spans="1:1">
       <c r="A1435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1436" spans="1:1">
@@ -7554,7 +7554,7 @@
     </row>
     <row r="1437" spans="1:1">
       <c r="A1437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1438" spans="1:1">
@@ -7564,7 +7564,7 @@
     </row>
     <row r="1439" spans="1:1">
       <c r="A1439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1440" spans="1:1">
@@ -7574,17 +7574,17 @@
     </row>
     <row r="1441" spans="1:1">
       <c r="A1441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1442" spans="1:1">
       <c r="A1442">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1443" spans="1:1">
       <c r="A1443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1444" spans="1:1">
@@ -7594,27 +7594,27 @@
     </row>
     <row r="1445" spans="1:1">
       <c r="A1445">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1446" spans="1:1">
       <c r="A1446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1447" spans="1:1">
       <c r="A1447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1448" spans="1:1">
       <c r="A1448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1449" spans="1:1">
       <c r="A1449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1450" spans="1:1">
@@ -7624,7 +7624,7 @@
     </row>
     <row r="1451" spans="1:1">
       <c r="A1451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1452" spans="1:1">
@@ -7639,12 +7639,12 @@
     </row>
     <row r="1454" spans="1:1">
       <c r="A1454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1455" spans="1:1">
       <c r="A1455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1456" spans="1:1">
@@ -7654,27 +7654,27 @@
     </row>
     <row r="1457" spans="1:1">
       <c r="A1457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1458" spans="1:1">
       <c r="A1458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1459" spans="1:1">
       <c r="A1459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1460" spans="1:1">
       <c r="A1460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1461" spans="1:1">
       <c r="A1461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1462" spans="1:1">
@@ -7684,12 +7684,12 @@
     </row>
     <row r="1463" spans="1:1">
       <c r="A1463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1464" spans="1:1">
       <c r="A1464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1465" spans="1:1">
@@ -7699,47 +7699,47 @@
     </row>
     <row r="1466" spans="1:1">
       <c r="A1466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1467" spans="1:1">
       <c r="A1467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1468" spans="1:1">
       <c r="A1468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1469" spans="1:1">
       <c r="A1469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1470" spans="1:1">
       <c r="A1470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1471" spans="1:1">
       <c r="A1471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1472" spans="1:1">
       <c r="A1472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1473" spans="1:1">
       <c r="A1473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1474" spans="1:1">
       <c r="A1474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1475" spans="1:1">
@@ -7749,7 +7749,7 @@
     </row>
     <row r="1476" spans="1:1">
       <c r="A1476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1477" spans="1:1">
@@ -7769,7 +7769,7 @@
     </row>
     <row r="1480" spans="1:1">
       <c r="A1480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1481" spans="1:1">
@@ -7779,7 +7779,7 @@
     </row>
     <row r="1482" spans="1:1">
       <c r="A1482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1483" spans="1:1">
@@ -7789,7 +7789,7 @@
     </row>
     <row r="1484" spans="1:1">
       <c r="A1484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1485" spans="1:1">
@@ -7874,7 +7874,7 @@
     </row>
     <row r="1501" spans="1:1">
       <c r="A1501">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1502" spans="1:1">
@@ -7889,17 +7889,17 @@
     </row>
     <row r="1504" spans="1:1">
       <c r="A1504">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1505" spans="1:1">
       <c r="A1505">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1506" spans="1:1">
       <c r="A1506">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1507" spans="1:1">
@@ -7909,7 +7909,7 @@
     </row>
     <row r="1508" spans="1:1">
       <c r="A1508">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1509" spans="1:1">
@@ -7954,12 +7954,12 @@
     </row>
     <row r="1517" spans="1:1">
       <c r="A1517">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1518" spans="1:1">
       <c r="A1518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1519" spans="1:1">
@@ -7984,7 +7984,7 @@
     </row>
     <row r="1523" spans="1:1">
       <c r="A1523">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1524" spans="1:1">
@@ -8009,7 +8009,7 @@
     </row>
     <row r="1528" spans="1:1">
       <c r="A1528">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1529" spans="1:1">
@@ -8024,12 +8024,12 @@
     </row>
     <row r="1531" spans="1:1">
       <c r="A1531">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1532" spans="1:1">
       <c r="A1532">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1533" spans="1:1">
@@ -8044,7 +8044,7 @@
     </row>
     <row r="1535" spans="1:1">
       <c r="A1535">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1536" spans="1:1">
@@ -8064,7 +8064,7 @@
     </row>
     <row r="1539" spans="1:1">
       <c r="A1539">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1540" spans="1:1">
@@ -8079,7 +8079,7 @@
     </row>
     <row r="1542" spans="1:1">
       <c r="A1542">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1543" spans="1:1">
@@ -8099,7 +8099,7 @@
     </row>
     <row r="1546" spans="1:1">
       <c r="A1546">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1547" spans="1:1">
@@ -8109,17 +8109,17 @@
     </row>
     <row r="1548" spans="1:1">
       <c r="A1548">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1549" spans="1:1">
       <c r="A1549">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1550" spans="1:1">
       <c r="A1550">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1551" spans="1:1">
@@ -8129,7 +8129,7 @@
     </row>
     <row r="1552" spans="1:1">
       <c r="A1552">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1553" spans="1:1">
@@ -8149,7 +8149,7 @@
     </row>
     <row r="1556" spans="1:1">
       <c r="A1556">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1557" spans="1:1">
@@ -8164,12 +8164,12 @@
     </row>
     <row r="1559" spans="1:1">
       <c r="A1559">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1560" spans="1:1">
       <c r="A1560">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1561" spans="1:1">
@@ -8194,12 +8194,12 @@
     </row>
     <row r="1565" spans="1:1">
       <c r="A1565">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1566" spans="1:1">
       <c r="A1566">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1567" spans="1:1">
@@ -8209,7 +8209,7 @@
     </row>
     <row r="1568" spans="1:1">
       <c r="A1568">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1569" spans="1:1">
@@ -8219,27 +8219,27 @@
     </row>
     <row r="1570" spans="1:1">
       <c r="A1570">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1571" spans="1:1">
       <c r="A1571">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1572" spans="1:1">
       <c r="A1572">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1573" spans="1:1">
       <c r="A1573">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1574" spans="1:1">
       <c r="A1574">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1575" spans="1:1">
@@ -8254,7 +8254,7 @@
     </row>
     <row r="1577" spans="1:1">
       <c r="A1577">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1578" spans="1:1">
@@ -8269,17 +8269,17 @@
     </row>
     <row r="1580" spans="1:1">
       <c r="A1580">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1581" spans="1:1">
       <c r="A1581">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1582" spans="1:1">
       <c r="A1582">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1583" spans="1:1">
@@ -8294,7 +8294,7 @@
     </row>
     <row r="1585" spans="1:1">
       <c r="A1585">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1586" spans="1:1">
@@ -8304,7 +8304,7 @@
     </row>
     <row r="1587" spans="1:1">
       <c r="A1587">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1588" spans="1:1">
@@ -8314,17 +8314,17 @@
     </row>
     <row r="1589" spans="1:1">
       <c r="A1589">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1590" spans="1:1">
       <c r="A1590">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1591" spans="1:1">
       <c r="A1591">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1592" spans="1:1">
@@ -8339,12 +8339,12 @@
     </row>
     <row r="1594" spans="1:1">
       <c r="A1594">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1595" spans="1:1">
       <c r="A1595">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1596" spans="1:1">
@@ -8354,27 +8354,27 @@
     </row>
     <row r="1597" spans="1:1">
       <c r="A1597">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1598" spans="1:1">
       <c r="A1598">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1599" spans="1:1">
       <c r="A1599">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1600" spans="1:1">
       <c r="A1600">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1601" spans="1:1">
       <c r="A1601">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1602" spans="1:1">
@@ -8404,12 +8404,12 @@
     </row>
     <row r="1607" spans="1:1">
       <c r="A1607">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1608" spans="1:1">
       <c r="A1608">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1609" spans="1:1">
@@ -8439,27 +8439,27 @@
     </row>
     <row r="1614" spans="1:1">
       <c r="A1614">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1615" spans="1:1">
       <c r="A1615">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1616" spans="1:1">
       <c r="A1616">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1617" spans="1:1">
       <c r="A1617">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1618" spans="1:1">
       <c r="A1618">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1619" spans="1:1">
@@ -8469,12 +8469,12 @@
     </row>
     <row r="1620" spans="1:1">
       <c r="A1620">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1621" spans="1:1">
       <c r="A1621">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1622" spans="1:1">
@@ -8484,7 +8484,7 @@
     </row>
     <row r="1623" spans="1:1">
       <c r="A1623">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1624" spans="1:1">
@@ -8494,12 +8494,12 @@
     </row>
     <row r="1625" spans="1:1">
       <c r="A1625">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1626" spans="1:1">
       <c r="A1626">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1627" spans="1:1">
@@ -8509,112 +8509,112 @@
     </row>
     <row r="1628" spans="1:1">
       <c r="A1628">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1629" spans="1:1">
       <c r="A1629">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1630" spans="1:1">
       <c r="A1630">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1631" spans="1:1">
       <c r="A1631">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1632" spans="1:1">
       <c r="A1632">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1633" spans="1:1">
       <c r="A1633">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1634" spans="1:1">
       <c r="A1634">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1635" spans="1:1">
       <c r="A1635">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1636" spans="1:1">
       <c r="A1636">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1637" spans="1:1">
       <c r="A1637">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1638" spans="1:1">
       <c r="A1638">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1639" spans="1:1">
       <c r="A1639">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1640" spans="1:1">
       <c r="A1640">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1641" spans="1:1">
       <c r="A1641">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1642" spans="1:1">
       <c r="A1642">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1643" spans="1:1">
       <c r="A1643">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1644" spans="1:1">
       <c r="A1644">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1645" spans="1:1">
       <c r="A1645">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1646" spans="1:1">
       <c r="A1646">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1647" spans="1:1">
       <c r="A1647">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1648" spans="1:1">
       <c r="A1648">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1649" spans="1:1">
       <c r="A1649">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1650" spans="1:1">
@@ -8624,7 +8624,7 @@
     </row>
     <row r="1651" spans="1:1">
       <c r="A1651">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1652" spans="1:1">
@@ -8654,7 +8654,7 @@
     </row>
     <row r="1657" spans="1:1">
       <c r="A1657">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1658" spans="1:1">
@@ -8669,7 +8669,7 @@
     </row>
     <row r="1660" spans="1:1">
       <c r="A1660">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1661" spans="1:1">
@@ -8744,7 +8744,7 @@
     </row>
     <row r="1675" spans="1:1">
       <c r="A1675">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1676" spans="1:1">
@@ -8754,7 +8754,7 @@
     </row>
     <row r="1677" spans="1:1">
       <c r="A1677">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1678" spans="1:1">
@@ -8879,7 +8879,7 @@
     </row>
     <row r="1702" spans="1:1">
       <c r="A1702">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1703" spans="1:1">
@@ -8954,7 +8954,7 @@
     </row>
     <row r="1717" spans="1:1">
       <c r="A1717">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1718" spans="1:1">
@@ -9049,7 +9049,7 @@
     </row>
     <row r="1736" spans="1:1">
       <c r="A1736">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1737" spans="1:1">
@@ -9094,7 +9094,7 @@
     </row>
     <row r="1745" spans="1:1">
       <c r="A1745">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1746" spans="1:1">
@@ -9194,7 +9194,7 @@
     </row>
     <row r="1765" spans="1:1">
       <c r="A1765">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1766" spans="1:1">
@@ -9289,7 +9289,7 @@
     </row>
     <row r="1784" spans="1:1">
       <c r="A1784">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1785" spans="1:1">
